--- a/excel/haizoku2.xlsx
+++ b/excel/haizoku2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/metagurosu/Documents/lab-lottery/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220D2B7-FE8A-D64E-A283-03208E87F013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB8719A0-64A3-9E47-BC34-B565769A2C51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="460" windowWidth="19300" windowHeight="16500" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
+    <workbookView xWindow="5900" yWindow="480" windowWidth="19300" windowHeight="16320" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,55 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
-  <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>志望先</t>
-    <rPh sb="0" eb="2">
-      <t>シボウサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>志望先id</t>
-    <rPh sb="0" eb="2">
-      <t>シボウサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6年生か</t>
-    <rPh sb="0" eb="1">
-      <t>ネンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選考状況</t>
-    <rPh sb="0" eb="2">
-      <t>センコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内定先</t>
-    <rPh sb="0" eb="2">
-      <t>ナイテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>浅井響</t>
     <phoneticPr fontId="1"/>
@@ -516,6 +467,55 @@
     <t>免疫微生物学</t>
     <rPh sb="0" eb="1">
       <t>メンエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <rPh sb="0" eb="2">
+      <t>シボウサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_six_course</t>
+    <rPh sb="0" eb="1">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>state</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dest_id</t>
+    <rPh sb="0" eb="2">
+      <t>シボウサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>final_id</t>
+    <rPh sb="0" eb="2">
+      <t>ナイテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -904,35 +904,36 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -940,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -963,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -986,10 +987,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1009,10 +1010,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1">
         <v>13</v>
@@ -1032,10 +1033,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -1055,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -1078,10 +1079,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>18</v>
@@ -1101,10 +1102,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1">
         <v>13</v>
@@ -1124,10 +1125,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1">
         <v>13</v>
@@ -1147,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -1170,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
@@ -1193,10 +1194,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1">
         <v>21</v>
@@ -1216,10 +1217,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
@@ -1239,10 +1240,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -1262,10 +1263,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -1285,10 +1286,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1">
         <v>12</v>
@@ -1308,10 +1309,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
@@ -1331,10 +1332,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1354,10 +1355,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1">
         <v>14</v>
@@ -1377,10 +1378,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1">
         <v>12</v>
@@ -1400,10 +1401,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
@@ -1423,10 +1424,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1">
         <v>12</v>
@@ -1446,10 +1447,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -1469,10 +1470,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1492,10 +1493,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1">
         <v>12</v>
@@ -1515,10 +1516,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -1538,10 +1539,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
@@ -1561,10 +1562,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1">
         <v>15</v>
@@ -1584,10 +1585,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -1607,10 +1608,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1">
         <v>9</v>
@@ -1630,10 +1631,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
@@ -1653,7 +1654,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1672,10 +1673,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1">
         <v>9</v>
@@ -1695,10 +1696,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D35" s="1">
         <v>22</v>
@@ -1718,10 +1719,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -1741,10 +1742,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D37" s="1">
         <v>22</v>
@@ -1764,10 +1765,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D38" s="1">
         <v>16</v>
@@ -1787,10 +1788,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1810,10 +1811,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1">
         <v>10</v>
@@ -1833,10 +1834,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -1856,10 +1857,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D42" s="1">
         <v>11</v>
@@ -1879,10 +1880,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1">
         <v>5</v>
@@ -1902,10 +1903,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1">
         <v>6</v>
@@ -1925,10 +1926,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1">
         <v>17</v>
@@ -1948,10 +1949,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D46" s="1">
         <v>22</v>
@@ -1971,10 +1972,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1">
         <v>17</v>
@@ -1994,10 +1995,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1">
         <v>15</v>
@@ -2017,10 +2018,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -2040,10 +2041,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1">
         <v>17</v>
@@ -2063,10 +2064,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2086,10 +2087,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -2109,10 +2110,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1">
         <v>10</v>
@@ -2132,10 +2133,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1">
         <v>18</v>
@@ -2155,10 +2156,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1">
         <v>17</v>
@@ -2178,10 +2179,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D56" s="1">
         <v>16</v>
@@ -2201,10 +2202,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D57" s="1">
         <v>11</v>
@@ -2224,10 +2225,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D58" s="1">
         <v>18</v>
@@ -2247,10 +2248,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -2270,10 +2271,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1">
         <v>11</v>
@@ -2293,10 +2294,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D61" s="1">
         <v>22</v>
@@ -2316,10 +2317,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
@@ -2339,10 +2340,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D63" s="1">
         <v>13</v>
@@ -2362,10 +2363,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1">
@@ -2383,7 +2384,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2402,10 +2403,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D66" s="1">
         <v>18</v>
@@ -2425,10 +2426,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D67" s="1">
         <v>18</v>
@@ -2448,10 +2449,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D68" s="1">
         <v>18</v>
@@ -2471,10 +2472,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D69" s="1">
         <v>10</v>
@@ -2494,10 +2495,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D70" s="1">
         <v>10</v>
@@ -2517,10 +2518,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1">
         <v>16</v>
@@ -2540,10 +2541,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D72" s="1">
         <v>11</v>
@@ -2563,10 +2564,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D73" s="1">
         <v>4</v>
@@ -2586,10 +2587,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D74" s="1">
         <v>10</v>
@@ -2609,10 +2610,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D75" s="1">
         <v>17</v>
@@ -2632,10 +2633,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D76" s="1">
         <v>6</v>
@@ -2655,10 +2656,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D77" s="1">
         <v>6</v>
@@ -2678,10 +2679,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D78" s="1">
         <v>12</v>
@@ -2710,10 +2711,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D80" s="1">
         <v>10</v>
@@ -2733,10 +2734,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -2756,10 +2757,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D82" s="1">
         <v>18</v>
@@ -2779,10 +2780,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D83" s="1">
         <v>11</v>
@@ -2802,10 +2803,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D84" s="1">
         <v>5</v>
@@ -2825,10 +2826,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D85" s="1">
         <v>17</v>
@@ -2848,10 +2849,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D86" s="1">
         <v>15</v>
@@ -2871,10 +2872,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D87" s="1">
         <v>4</v>
@@ -2894,10 +2895,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D88" s="1">
         <v>17</v>
@@ -2917,10 +2918,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D89" s="1">
         <v>21</v>
@@ -2940,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D90" s="1">
         <v>4</v>
@@ -2963,10 +2964,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D91" s="1">
         <v>2</v>
